--- a/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
+++ b/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1093"/>
+  <dimension ref="A1:B1094"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9210,6 +9210,14 @@
       </c>
       <c r="B1093" t="n">
         <v>-118.699</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>-120.406</v>
       </c>
     </row>
   </sheetData>
@@ -9258,7 +9266,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9278,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9314,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-22</t>
         </is>
       </c>
     </row>
@@ -9390,7 +9398,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-16 15:34:06-06</t>
+          <t>2023-11-24 15:37:06-06</t>
         </is>
       </c>
     </row>

--- a/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
+++ b/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1094"/>
+  <dimension ref="A1:B1096"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9218,6 +9218,22 @@
       </c>
       <c r="B1094" t="n">
         <v>-120.406</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>-122.613</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>-125.092</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9282,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -9278,7 +9294,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -9314,7 +9330,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-12-06</t>
         </is>
       </c>
     </row>
@@ -9398,7 +9414,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-24 15:37:06-06</t>
+          <t>2023-12-07 15:34:07-06</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9425,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
+++ b/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1099"/>
+  <dimension ref="A1:B1101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9258,6 +9258,22 @@
       </c>
       <c r="B1099" t="n">
         <v>-131.518</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>-134.541</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>-136.865</v>
       </c>
     </row>
   </sheetData>
@@ -9306,7 +9322,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9334,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9370,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-01-10</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9454,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-12-28 15:34:07-06</t>
+          <t>2024-01-11 15:34:04-06</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9465,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
+++ b/Macro_Chartist/SavedData/RESPPLLOPNWW.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1105"/>
+  <dimension ref="A1:B1106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9306,6 +9306,14 @@
       </c>
       <c r="B1105" t="n">
         <v>-147.25</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>-149.508</v>
       </c>
     </row>
   </sheetData>
@@ -9354,7 +9362,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9374,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9410,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-14</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9494,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-02-08 15:34:06-06</t>
+          <t>2024-02-15 15:34:04-06</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9505,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
